--- a/demo/demo_data.xlsx
+++ b/demo/demo_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\展演\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="前台會員" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>帳號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>團專</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前端設計</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,73 +135,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>網站目標客群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4手提袋</t>
+  </si>
+  <si>
+    <t>我們採用了手柄的厚度，減輕了肩膀和手的負擔。</t>
+  </si>
+  <si>
+    <t>駝棕色</t>
+  </si>
+  <si>
+    <t>首頁設計</t>
+  </si>
+  <si>
+    <t>設計logo</t>
+  </si>
+  <si>
+    <t>畫Logo草稿</t>
+  </si>
+  <si>
+    <t>ccpopocket@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子項目1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職人口袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增商品</t>
+  </si>
+  <si>
+    <t>薑黃色</t>
+  </si>
+  <si>
+    <t>iPhone手機翻蓋套</t>
+  </si>
+  <si>
+    <t>皇家紅</t>
+  </si>
+  <si>
+    <t>湖水綠</t>
+  </si>
+  <si>
+    <t>高品質真皮，內部設有名片口袋，方便職人們在商業場合中使用。</t>
+  </si>
+  <si>
+    <t>主題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>畫logo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>logo色彩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站主題決定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網站設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>logo設計</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>logo色彩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網站目標客群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網站主題決定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A4手提袋</t>
-  </si>
-  <si>
-    <t>我們採用了手柄的厚度，減輕了肩膀和手的負擔。</t>
-  </si>
-  <si>
-    <t>新增商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>駝棕色</t>
-  </si>
-  <si>
-    <t>首頁設計</t>
-  </si>
-  <si>
-    <t>設計logo</t>
-  </si>
-  <si>
-    <t>畫Logo草稿</t>
-  </si>
-  <si>
-    <t>ccpopocket@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子項目1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>項目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>職人口袋</t>
+    <t>專案1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片1-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,12 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF23282C"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,6 +272,13 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF23282C"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -291,7 +318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -301,6 +328,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -309,9 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -599,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -632,7 +662,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -640,30 +670,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -680,14 +710,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -711,7 +741,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -724,6 +760,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="G5" t="s">
         <v>20</v>
       </c>
@@ -739,7 +778,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
@@ -750,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -761,10 +800,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
         <v>7</v>
@@ -772,7 +811,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -780,7 +819,7 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
@@ -788,10 +827,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>12</v>
@@ -799,7 +838,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -816,10 +855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:E12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -827,39 +866,101 @@
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>10501</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="B2" s="6">
+        <v>10502</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1200</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>30401</v>
+      </c>
+      <c r="B10" s="6">
+        <v>30402</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>799</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
